--- a/wikiimages/Puzzle-8.xlsx
+++ b/wikiimages/Puzzle-8.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>white_king</t>
   </si>
@@ -74,9 +74,6 @@
     <t>OPTION3</t>
   </si>
   <si>
-    <t>OPTION4</t>
-  </si>
-  <si>
     <t>ANSWER</t>
   </si>
   <si>
@@ -117,13 +114,25 @@
   </si>
   <si>
     <t>PIECE</t>
+  </si>
+  <si>
+    <t>1.rxd1,nc6 2.nxf7,ke83.nxh8,nf74.re1</t>
+  </si>
+  <si>
+    <t>1.bf5,bxf5 2.nb5,qxe1 3.nb5,h6 4.nxf7</t>
+  </si>
+  <si>
+    <t>1.ba3,h6 2.nxf7,kd7 3.ne6,pxe6 4.be4</t>
+  </si>
+  <si>
+    <t>1. Nxf7+ Kd7 2. Bf5+ Kc6 3. Nd8+ Kd6 4. Bf4#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +146,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -180,6 +203,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +220,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dhvnish" refreshedDate="42365.559746643521" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.481371064816" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -229,16 +254,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Value" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="13">
         <s v="black_rook"/>
         <m/>
-        <s v="black_queen"/>
+        <s v="black_bishop"/>
         <s v="black_king"/>
         <s v="black_pawn"/>
-        <s v="black_bishop"/>
+        <s v="black_knight"/>
         <s v="white_knight"/>
+        <s v="white_bishop"/>
+        <s v="white_pawn"/>
         <s v="white_queen"/>
-        <s v="white_pawn"/>
+        <s v="black_queen"/>
         <s v="white_rook"/>
         <s v="white_king"/>
       </sharedItems>
@@ -267,22 +294,22 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
@@ -292,37 +319,37 @@
   <r>
     <x v="0"/>
     <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
     <x v="5"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
     <x v="5"/>
-    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="1"/>
@@ -342,7 +369,7 @@
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
@@ -357,7 +384,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="2"/>
@@ -372,7 +399,7 @@
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="6"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
@@ -382,7 +409,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="3"/>
@@ -392,7 +419,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="7"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="3"/>
@@ -407,12 +434,12 @@
   <r>
     <x v="3"/>
     <x v="6"/>
-    <x v="5"/>
+    <x v="7"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="4"/>
@@ -427,17 +454,17 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
@@ -457,7 +484,7 @@
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
@@ -487,7 +514,7 @@
   <r>
     <x v="5"/>
     <x v="6"/>
-    <x v="1"/>
+    <x v="9"/>
   </r>
   <r>
     <x v="5"/>
@@ -497,17 +524,17 @@
   <r>
     <x v="6"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="6"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="10"/>
   </r>
   <r>
     <x v="6"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="6"/>
@@ -532,12 +559,12 @@
   <r>
     <x v="6"/>
     <x v="7"/>
-    <x v="8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="0"/>
-    <x v="9"/>
+    <x v="11"/>
   </r>
   <r>
     <x v="7"/>
@@ -557,28 +584,28 @@
   <r>
     <x v="7"/>
     <x v="4"/>
-    <x v="1"/>
+    <x v="12"/>
   </r>
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="6"/>
-    <x v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <x v="1"/>
+    <x v="11"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -934,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,13 +972,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -973,23 +1000,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,15 +1027,18 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1027,18 +1057,15 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,18 +1076,15 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1071,23 +1095,29 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,15 +1150,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19">
         <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1147,12 +1174,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22">
         <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1171,15 +1201,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25">
         <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1190,12 +1217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27">
         <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1214,7 +1244,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1241,15 +1271,18 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33">
         <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1268,34 +1301,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38">
         <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1322,15 +1352,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
       <c r="B42">
         <v>0</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1373,12 +1400,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48">
         <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1389,12 +1419,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,18 +1438,15 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1457,15 +1487,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
       <c r="B57">
         <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1503,42 +1530,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
       <c r="B65">
         <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1594,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1582,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N14"/>
+  <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,12 +1620,12 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -1627,7 +1654,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="55.5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1683,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1681,7 +1714,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -1699,7 +1735,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
         <v>4</v>
@@ -1723,7 +1762,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
@@ -1741,7 +1783,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" ht="57" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
@@ -1759,12 +1804,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="54.75" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
@@ -1783,7 +1831,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="50.25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1802,49 +1853,50 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="N12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate function="average"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:J11">
       <formula1>PIECES</formula1>
@@ -1859,11 +1911,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1881,11 +1939,8 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1895,15 +1950,22 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/wikiimages/Puzzle-8.xlsx
+++ b/wikiimages/Puzzle-8.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
@@ -18,13 +18,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>white_king</t>
   </si>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42373.481371064816" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jyothi" refreshedDate="42374.808066203703" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="64">
   <cacheSource type="consolidation">
     <consolidation autoPage="0">
       <rangeSets count="1">
@@ -494,7 +494,7 @@
   <r>
     <x v="5"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <x v="5"/>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0">
@@ -664,8 +664,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="X"/>
-    <tableColumn id="2" name="Y"/>
+    <tableColumn id="1" name="Y"/>
+    <tableColumn id="2" name="X"/>
     <tableColumn id="3" name="PIECE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -961,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:C65"/>
     </sheetView>
   </sheetViews>
@@ -972,10 +972,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
@@ -1368,12 +1368,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44">
         <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1602,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1611,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1792,9 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
@@ -1911,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="D10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
